--- a/Sorteio-Toodoo/Sorteio-Toodoo/bin/Debug/net5.0-windows/Winners_List.xlsx
+++ b/Sorteio-Toodoo/Sorteio-Toodoo/bin/Debug/net5.0-windows/Winners_List.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Joao\CSharp\Toodoo\BlastOff\Projects\Sorteio-Toodoo\Sorteio-Toodoo\bin\Debug\net5.0-windows\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Lucas Thalles dos Santos</t>
   </si>
@@ -77,64 +84,16 @@
     <t>Ruan Patrick de Souza</t>
   </si>
   <si>
-    <t>Danilo de Jesus Cruz</t>
-  </si>
-  <si>
-    <t>Tarcio Passos Freitas</t>
-  </si>
-  <si>
-    <t>Thiago Agostinho Mem</t>
-  </si>
-  <si>
-    <t>Valdir Aires Pinheiro Neto</t>
-  </si>
-  <si>
-    <t>Vanilza Faria de Oliveira</t>
-  </si>
-  <si>
-    <t>Gabriel Galhato Roriz</t>
-  </si>
-  <si>
-    <t>Silas Almeida de Sena</t>
-  </si>
-  <si>
-    <t>João Leonardo Andrade Morganti Silva</t>
-  </si>
-  <si>
-    <t>Luana Cristina Cosensa Pierini</t>
-  </si>
-  <si>
-    <t>Guilherme Soares Battaglin</t>
-  </si>
-  <si>
-    <t>Yasmin Gomes Carpes</t>
-  </si>
-  <si>
-    <t>Guilherme Ribeiro de Melo Yabu</t>
-  </si>
-  <si>
-    <t>Bruna Eduarda dos Santos Martinez Souza</t>
-  </si>
-  <si>
-    <t>Gustavo de Paiva Caiafa</t>
-  </si>
-  <si>
-    <t>Cahue Kokeny Borges Guimarães</t>
-  </si>
-  <si>
-    <t>Gustavo Silva Barbosa</t>
-  </si>
-  <si>
-    <t>Gabriella da Silva Correia</t>
-  </si>
-  <si>
-    <t>Giovanni Francez</t>
+    <t>Gustavo Henrique da Silva Prado</t>
+  </si>
+  <si>
+    <t>Felipe Rafael Tancredi Pascucci</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -160,23 +119,295 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:A40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -295,92 +526,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Sorteio-Toodoo/Sorteio-Toodoo/bin/Debug/net5.0-windows/Winners_List.xlsx
+++ b/Sorteio-Toodoo/Sorteio-Toodoo/bin/Debug/net5.0-windows/Winners_List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Joao\CSharp\Toodoo\BlastOff\Projects\Sorteio-Toodoo\Sorteio-Toodoo\bin\Debug\net5.0-windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Joao\CSharp\Toodoo\Sorteio_Aniversario_Toodoo\Sorteio_Aniversario_Toodoo\Sorteio-Toodoo\Sorteio-Toodoo\bin\Debug\net5.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,87 +14,16 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Lucas Thalles dos Santos</t>
-  </si>
-  <si>
-    <t>Ygor Guilherme Ribeiro Rosa</t>
-  </si>
-  <si>
-    <t>Guilherme Esquivel dos Santos</t>
-  </si>
-  <si>
-    <t>Matheus Cleber Silva Guerra</t>
-  </si>
-  <si>
-    <t>Roberto Ryan Caldas Ribeiro</t>
-  </si>
-  <si>
-    <t>Paulo Sérgio Aquino Ribeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diogenes  Aparecido Rezende</t>
-  </si>
-  <si>
-    <t>Tharsis Lamin Lumumba Boa Morte Queiroz</t>
-  </si>
-  <si>
-    <t>Leonardo Everton da Costa</t>
-  </si>
-  <si>
-    <t>Lucas Eduardo Moraes da Silva</t>
-  </si>
-  <si>
-    <t>Marcelo Bruno Verissimo Mendes Moraes Viegas</t>
-  </si>
-  <si>
-    <t>Gabriel Junior de Souza</t>
-  </si>
-  <si>
-    <t>Walber Fellipe de Almeida Rosa</t>
-  </si>
-  <si>
-    <t>Samuel Alves Brandani Tenório</t>
-  </si>
-  <si>
-    <t>Nicole Ribeiro de Paula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEGO ALVES OPENHEIMER </t>
-  </si>
-  <si>
-    <t>Bruno Gabriel Nogueira da Silva</t>
-  </si>
-  <si>
-    <t>Felipe Gabriel da Cunha</t>
-  </si>
-  <si>
-    <t>Patrick Barnabé Moreira Santos</t>
-  </si>
-  <si>
-    <t>João Vitor Alves Lima</t>
-  </si>
-  <si>
-    <t>Ruan Patrick de Souza</t>
-  </si>
-  <si>
-    <t>Gustavo Henrique da Silva Prado</t>
-  </si>
-  <si>
-    <t>Felipe Rafael Tancredi Pascucci</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -122,7 +51,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,132 +331,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:A23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <headerFooter/>
 </worksheet>
 </file>